--- a/train_1/Описание файлов .parquet.xlsx
+++ b/train_1/Описание файлов .parquet.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\haki\datawagon2\train_1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1D3CCF-DF62-4051-B57F-4306F52653AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhPLUh3r0Ifk21OC5WtJaX71AcOFQ=="/>
@@ -639,41 +648,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF1A1A1A"/>
       <name val="Arial"/>
     </font>
@@ -683,7 +695,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -693,11 +705,21 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -706,9 +728,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -723,6 +747,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -731,74 +756,73 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -988,27 +1012,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W998"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.13"/>
-    <col customWidth="1" min="2" max="2" width="21.88"/>
-    <col customWidth="1" min="3" max="3" width="80.63"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col min="1" max="1" width="31.140625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="80.5703125" customWidth="1"/>
+    <col min="4" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1032,14 +1061,14 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2"/>
@@ -1063,12 +1092,12 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2"/>
@@ -1092,12 +1121,12 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
@@ -1121,12 +1150,12 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2"/>
@@ -1150,12 +1179,12 @@
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="2"/>
@@ -1179,12 +1208,12 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2"/>
@@ -1208,12 +1237,12 @@
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2"/>
@@ -1237,12 +1266,12 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="2"/>
@@ -1266,12 +1295,12 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2"/>
@@ -1295,12 +1324,12 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="2"/>
@@ -1324,12 +1353,12 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2"/>
@@ -1353,12 +1382,12 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2"/>
@@ -1382,12 +1411,12 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2"/>
@@ -1411,12 +1440,12 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="2"/>
@@ -1440,12 +1469,12 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="2"/>
@@ -1469,12 +1498,12 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="2"/>
@@ -1498,12 +1527,12 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2"/>
@@ -1527,12 +1556,12 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="2"/>
@@ -1556,12 +1585,12 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="2"/>
@@ -1585,12 +1614,12 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="2"/>
@@ -1614,12 +1643,12 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="2"/>
@@ -1643,12 +1672,12 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="12" t="s">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="9" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="2"/>
@@ -1672,12 +1701,12 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="2"/>
@@ -1701,12 +1730,12 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D25" s="2"/>
@@ -1730,12 +1759,12 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="2"/>
@@ -1759,12 +1788,12 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D27" s="2"/>
@@ -1788,12 +1817,12 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="4"/>
+      <c r="C28" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="2"/>
@@ -1817,12 +1846,12 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2"/>
@@ -1846,12 +1875,12 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="2"/>
@@ -1875,12 +1904,12 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="9" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="2"/>
@@ -1904,12 +1933,12 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="2"/>
@@ -1933,12 +1962,12 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D33" s="2"/>
@@ -1962,12 +1991,12 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
       <c r="D34" s="2"/>
@@ -1991,12 +2020,12 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D35" s="2"/>
@@ -2020,12 +2049,12 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="6" t="s">
         <v>62</v>
       </c>
       <c r="D36" s="2"/>
@@ -2049,12 +2078,12 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D37" s="2"/>
@@ -2078,12 +2107,12 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="2"/>
@@ -2107,12 +2136,12 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D39" s="2"/>
@@ -2136,12 +2165,12 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="2"/>
@@ -2165,12 +2194,12 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D41" s="2"/>
@@ -2194,12 +2223,12 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9" t="s">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="6" t="s">
         <v>74</v>
       </c>
       <c r="D42" s="2"/>
@@ -2223,12 +2252,12 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9" t="s">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D43" s="2"/>
@@ -2252,12 +2281,12 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9" t="s">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="6" t="s">
         <v>78</v>
       </c>
       <c r="D44" s="2"/>
@@ -2281,12 +2310,12 @@
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9" t="s">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="6" t="s">
         <v>80</v>
       </c>
       <c r="D45" s="2"/>
@@ -2310,12 +2339,12 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D46" s="2"/>
@@ -2339,12 +2368,12 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="10"/>
-      <c r="B47" s="9" t="s">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D47" s="2"/>
@@ -2368,12 +2397,12 @@
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="4"/>
+      <c r="C48" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D48" s="2"/>
@@ -2397,12 +2426,12 @@
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9" t="s">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="2"/>
@@ -2426,12 +2455,12 @@
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="16"/>
+      <c r="B50" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D50" s="2"/>
@@ -2455,12 +2484,12 @@
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9" t="s">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="16"/>
+      <c r="B51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2"/>
@@ -2484,12 +2513,12 @@
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9" t="s">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16"/>
+      <c r="B52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D52" s="2"/>
@@ -2513,12 +2542,12 @@
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="9" t="s">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="16"/>
+      <c r="B53" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D53" s="2"/>
@@ -2542,12 +2571,12 @@
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9" t="s">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="16"/>
+      <c r="B54" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D54" s="2"/>
@@ -2571,12 +2600,12 @@
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9" t="s">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D55" s="2"/>
@@ -2600,12 +2629,12 @@
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9" t="s">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="16"/>
+      <c r="B56" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D56" s="2"/>
@@ -2629,12 +2658,12 @@
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9" t="s">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16"/>
+      <c r="B57" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="6" t="s">
         <v>98</v>
       </c>
       <c r="D57" s="2"/>
@@ -2658,12 +2687,12 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9" t="s">
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="16"/>
+      <c r="B58" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D58" s="2"/>
@@ -2687,12 +2716,12 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="10"/>
-      <c r="B59" s="9" t="s">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="17"/>
+      <c r="B59" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D59" s="2"/>
@@ -2716,12 +2745,12 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="4"/>
+      <c r="C60" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D60" s="2"/>
@@ -2745,12 +2774,12 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9" t="s">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="16"/>
+      <c r="B61" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="2"/>
@@ -2774,12 +2803,12 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9" t="s">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="16"/>
+      <c r="B62" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="6" t="s">
         <v>102</v>
       </c>
       <c r="D62" s="2"/>
@@ -2803,12 +2832,12 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9" t="s">
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16"/>
+      <c r="B63" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D63" s="2"/>
@@ -2832,12 +2861,12 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9" t="s">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16"/>
+      <c r="B64" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="6" t="s">
         <v>106</v>
       </c>
       <c r="D64" s="2"/>
@@ -2861,12 +2890,12 @@
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9" t="s">
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16"/>
+      <c r="B65" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="6" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="2"/>
@@ -2890,12 +2919,12 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="8"/>
-      <c r="B66" s="9" t="s">
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16"/>
+      <c r="B66" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="6" t="s">
         <v>110</v>
       </c>
       <c r="D66" s="2"/>
@@ -2919,12 +2948,12 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9" t="s">
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="16"/>
+      <c r="B67" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D67" s="2"/>
@@ -2948,12 +2977,12 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9" t="s">
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D68" s="2"/>
@@ -2977,12 +3006,12 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9" t="s">
+    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="16"/>
+      <c r="B69" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D69" s="2"/>
@@ -3006,12 +3035,12 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9" t="s">
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="16"/>
+      <c r="B70" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="6" t="s">
         <v>118</v>
       </c>
       <c r="D70" s="2"/>
@@ -3035,12 +3064,12 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9" t="s">
+    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="16"/>
+      <c r="B71" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D71" s="2"/>
@@ -3064,12 +3093,12 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9" t="s">
+    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="16"/>
+      <c r="B72" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D72" s="2"/>
@@ -3093,12 +3122,12 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9" t="s">
+    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="16"/>
+      <c r="B73" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D73" s="2"/>
@@ -3122,12 +3151,12 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9" t="s">
+    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="6" t="s">
         <v>125</v>
       </c>
       <c r="D74" s="2"/>
@@ -3151,12 +3180,12 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="8"/>
-      <c r="B75" s="9" t="s">
+    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="16"/>
+      <c r="B75" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D75" s="2"/>
@@ -3180,12 +3209,12 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="10"/>
-      <c r="B76" s="9" t="s">
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="17"/>
+      <c r="B76" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="6" t="s">
         <v>128</v>
       </c>
       <c r="D76" s="2"/>
@@ -3209,12 +3238,12 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="14" t="s">
+      <c r="B77" s="4"/>
+      <c r="C77" s="10" t="s">
         <v>130</v>
       </c>
       <c r="D77" s="2"/>
@@ -3238,12 +3267,12 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="8"/>
-      <c r="B78" s="9" t="s">
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="16"/>
+      <c r="B78" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2"/>
@@ -3267,12 +3296,12 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="8"/>
-      <c r="B79" s="9" t="s">
+    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="16"/>
+      <c r="B79" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="6" t="s">
         <v>132</v>
       </c>
       <c r="D79" s="2"/>
@@ -3296,12 +3325,12 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="8"/>
-      <c r="B80" s="9" t="s">
+    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="6" t="s">
         <v>134</v>
       </c>
       <c r="D80" s="2"/>
@@ -3325,12 +3354,12 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="8"/>
-      <c r="B81" s="9" t="s">
+    <row r="81" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16"/>
+      <c r="B81" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="6" t="s">
         <v>136</v>
       </c>
       <c r="D81" s="2"/>
@@ -3354,12 +3383,12 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="8"/>
-      <c r="B82" s="9" t="s">
+    <row r="82" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="16"/>
+      <c r="B82" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="6" t="s">
         <v>138</v>
       </c>
       <c r="D82" s="2"/>
@@ -3383,12 +3412,12 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="8"/>
-      <c r="B83" s="9" t="s">
+    <row r="83" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16"/>
+      <c r="B83" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D83" s="2"/>
@@ -3412,12 +3441,12 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="8"/>
-      <c r="B84" s="9" t="s">
+    <row r="84" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D84" s="2"/>
@@ -3441,12 +3470,12 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="8"/>
-      <c r="B85" s="9" t="s">
+    <row r="85" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="16"/>
+      <c r="B85" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D85" s="2"/>
@@ -3470,12 +3499,12 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="8"/>
-      <c r="B86" s="9" t="s">
+    <row r="86" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D86" s="2"/>
@@ -3499,12 +3528,12 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9" t="s">
+    <row r="87" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="16"/>
+      <c r="B87" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" s="6" t="s">
         <v>148</v>
       </c>
       <c r="D87" s="2"/>
@@ -3528,12 +3557,12 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="8"/>
-      <c r="B88" s="9" t="s">
+    <row r="88" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="16"/>
+      <c r="B88" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="6" t="s">
         <v>150</v>
       </c>
       <c r="D88" s="2"/>
@@ -3557,12 +3586,12 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="8"/>
-      <c r="B89" s="9" t="s">
+    <row r="89" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="16"/>
+      <c r="B89" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D89" s="2"/>
@@ -3586,12 +3615,12 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="8"/>
-      <c r="B90" s="9" t="s">
+    <row r="90" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="16"/>
+      <c r="B90" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D90" s="2"/>
@@ -3615,12 +3644,12 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="8"/>
-      <c r="B91" s="9" t="s">
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16"/>
+      <c r="B91" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D91" s="2"/>
@@ -3644,12 +3673,12 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9" t="s">
+    <row r="92" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="16"/>
+      <c r="B92" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="6" t="s">
         <v>158</v>
       </c>
       <c r="D92" s="2"/>
@@ -3673,12 +3702,12 @@
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9" t="s">
+    <row r="93" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="16"/>
+      <c r="B93" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="6" t="s">
         <v>160</v>
       </c>
       <c r="D93" s="2"/>
@@ -3702,12 +3731,12 @@
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9" t="s">
+    <row r="94" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D94" s="2"/>
@@ -3731,12 +3760,12 @@
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="8"/>
-      <c r="B95" s="9" t="s">
+    <row r="95" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="16"/>
+      <c r="B95" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D95" s="2"/>
@@ -3760,12 +3789,12 @@
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="10"/>
-      <c r="B96" s="9" t="s">
+    <row r="96" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+      <c r="B96" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="6" t="s">
         <v>166</v>
       </c>
       <c r="D96" s="2"/>
@@ -3789,12 +3818,12 @@
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="15" t="s">
+      <c r="B97" s="4"/>
+      <c r="C97" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D97" s="2"/>
@@ -3818,12 +3847,12 @@
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="8"/>
-      <c r="B98" s="9" t="s">
+    <row r="98" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="16"/>
+      <c r="B98" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D98" s="2"/>
@@ -3847,12 +3876,12 @@
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="8"/>
-      <c r="B99" s="9" t="s">
+    <row r="99" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="16"/>
+      <c r="B99" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="6" t="s">
         <v>171</v>
       </c>
       <c r="D99" s="2"/>
@@ -3876,12 +3905,12 @@
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="8"/>
-      <c r="B100" s="9" t="s">
+    <row r="100" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="16"/>
+      <c r="B100" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="6" t="s">
         <v>173</v>
       </c>
       <c r="D100" s="2"/>
@@ -3905,12 +3934,12 @@
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="8"/>
-      <c r="B101" s="9" t="s">
+    <row r="101" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="16"/>
+      <c r="B101" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="6" t="s">
         <v>175</v>
       </c>
       <c r="D101" s="2"/>
@@ -3934,12 +3963,12 @@
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="8"/>
-      <c r="B102" s="9" t="s">
+    <row r="102" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="16"/>
+      <c r="B102" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D102" s="2"/>
@@ -3963,12 +3992,12 @@
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="8"/>
-      <c r="B103" s="9" t="s">
+    <row r="103" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="16"/>
+      <c r="B103" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D103" s="2"/>
@@ -3992,12 +4021,12 @@
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="8"/>
-      <c r="B104" s="9" t="s">
+    <row r="104" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="16"/>
+      <c r="B104" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="6" t="s">
         <v>181</v>
       </c>
       <c r="D104" s="2"/>
@@ -4021,12 +4050,12 @@
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="8"/>
-      <c r="B105" s="9" t="s">
+    <row r="105" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="16"/>
+      <c r="B105" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="6" t="s">
         <v>183</v>
       </c>
       <c r="D105" s="2"/>
@@ -4050,12 +4079,12 @@
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="10"/>
-      <c r="B106" s="9" t="s">
+    <row r="106" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="17"/>
+      <c r="B106" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D106" s="2"/>
@@ -4079,12 +4108,12 @@
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="15" t="s">
+      <c r="B107" s="4"/>
+      <c r="C107" s="11" t="s">
         <v>187</v>
       </c>
       <c r="D107" s="2"/>
@@ -4108,12 +4137,12 @@
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="8"/>
-      <c r="B108" s="9" t="s">
+    <row r="108" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="16"/>
+      <c r="B108" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="C108" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D108" s="2"/>
@@ -4137,12 +4166,12 @@
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="8"/>
-      <c r="B109" s="9" t="s">
+    <row r="109" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="16"/>
+      <c r="B109" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="9" t="s">
+      <c r="C109" s="6" t="s">
         <v>191</v>
       </c>
       <c r="D109" s="2"/>
@@ -4166,12 +4195,12 @@
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="8"/>
-      <c r="B110" s="9" t="s">
+    <row r="110" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="16"/>
+      <c r="B110" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" s="6" t="s">
         <v>193</v>
       </c>
       <c r="D110" s="2"/>
@@ -4195,12 +4224,12 @@
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="8"/>
-      <c r="B111" s="9" t="s">
+    <row r="111" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="16"/>
+      <c r="B111" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C111" s="9" t="s">
+      <c r="C111" s="6" t="s">
         <v>195</v>
       </c>
       <c r="D111" s="2"/>
@@ -4224,12 +4253,12 @@
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="8"/>
-      <c r="B112" s="9" t="s">
+    <row r="112" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="16"/>
+      <c r="B112" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="6" t="s">
         <v>197</v>
       </c>
       <c r="D112" s="2"/>
@@ -4253,12 +4282,12 @@
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="8"/>
-      <c r="B113" s="9" t="s">
+    <row r="113" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="16"/>
+      <c r="B113" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D113" s="2"/>
@@ -4282,12 +4311,12 @@
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="8"/>
-      <c r="B114" s="9" t="s">
+    <row r="114" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="16"/>
+      <c r="B114" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="6" t="s">
         <v>201</v>
       </c>
       <c r="D114" s="2"/>
@@ -4311,12 +4340,12 @@
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="8"/>
-      <c r="B115" s="9" t="s">
+    <row r="115" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="16"/>
+      <c r="B115" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C115" s="9" t="s">
+      <c r="C115" s="6" t="s">
         <v>203</v>
       </c>
       <c r="D115" s="2"/>
@@ -4340,12 +4369,12 @@
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="10"/>
-      <c r="B116" s="9" t="s">
+    <row r="116" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="17"/>
+      <c r="B116" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="6" t="s">
         <v>205</v>
       </c>
       <c r="D116" s="2"/>
@@ -4369,10 +4398,10 @@
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="16"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
+    <row r="117" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="18"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -4394,10 +4423,10 @@
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
+    <row r="118" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="19"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -4419,10 +4448,10 @@
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
+    <row r="119" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="19"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -4444,10 +4473,10 @@
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
+    <row r="120" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="19"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -4469,10 +4498,10 @@
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
+    <row r="121" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="19"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -4494,10 +4523,10 @@
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
+    <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="19"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -4519,10 +4548,10 @@
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
+    <row r="123" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="19"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -4544,10 +4573,10 @@
       <c r="V123" s="2"/>
       <c r="W123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="17"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
+    <row r="124" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="19"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -4569,10 +4598,10 @@
       <c r="V124" s="2"/>
       <c r="W124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
+    <row r="125" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="19"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -4594,10 +4623,10 @@
       <c r="V125" s="2"/>
       <c r="W125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
+    <row r="126" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="19"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -4619,10 +4648,10 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
+    <row r="127" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="19"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="12"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -4644,10 +4673,10 @@
       <c r="V127" s="2"/>
       <c r="W127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
+    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="19"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -4669,10 +4698,10 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
+    <row r="129" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="19"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -4694,10 +4723,10 @@
       <c r="V129" s="2"/>
       <c r="W129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="17"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
+    <row r="130" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="19"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="12"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -4719,10 +4748,10 @@
       <c r="V130" s="2"/>
       <c r="W130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
+    <row r="131" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="19"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="12"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -4744,10 +4773,10 @@
       <c r="V131" s="2"/>
       <c r="W131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
+    <row r="132" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="19"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="12"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -4769,10 +4798,10 @@
       <c r="V132" s="2"/>
       <c r="W132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
+    <row r="133" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="19"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -4794,10 +4823,10 @@
       <c r="V133" s="2"/>
       <c r="W133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="17"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
+    <row r="134" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="19"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="12"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -4819,10 +4848,10 @@
       <c r="V134" s="2"/>
       <c r="W134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="17"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
+    <row r="135" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="19"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="12"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -4844,10 +4873,10 @@
       <c r="V135" s="2"/>
       <c r="W135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="17"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
+    <row r="136" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="19"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="12"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -4869,10 +4898,10 @@
       <c r="V136" s="2"/>
       <c r="W136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="17"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
+    <row r="137" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="19"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -4894,10 +4923,10 @@
       <c r="V137" s="2"/>
       <c r="W137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="17"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
+    <row r="138" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="19"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="12"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -4919,10 +4948,10 @@
       <c r="V138" s="2"/>
       <c r="W138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
+    <row r="139" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="19"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -4944,10 +4973,10 @@
       <c r="V139" s="2"/>
       <c r="W139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="17"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
+    <row r="140" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="19"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -4969,10 +4998,10 @@
       <c r="V140" s="2"/>
       <c r="W140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
+    <row r="141" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="19"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -4994,10 +5023,10 @@
       <c r="V141" s="2"/>
       <c r="W141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="17"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
+    <row r="142" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="19"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="12"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -5019,10 +5048,10 @@
       <c r="V142" s="2"/>
       <c r="W142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="17"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
+    <row r="143" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="19"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="12"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -5044,10 +5073,10 @@
       <c r="V143" s="2"/>
       <c r="W143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
+    <row r="144" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="19"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -5069,10 +5098,10 @@
       <c r="V144" s="2"/>
       <c r="W144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="17"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
+    <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="19"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -5094,10 +5123,10 @@
       <c r="V145" s="2"/>
       <c r="W145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="17"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
+    <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="19"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="12"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -5119,10 +5148,10 @@
       <c r="V146" s="2"/>
       <c r="W146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="17"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
+    <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="19"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="12"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -5144,10 +5173,10 @@
       <c r="V147" s="2"/>
       <c r="W147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="17"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
+    <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="19"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="12"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -5169,10 +5198,10 @@
       <c r="V148" s="2"/>
       <c r="W148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="17"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
+    <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="19"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -5194,10 +5223,10 @@
       <c r="V149" s="2"/>
       <c r="W149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="17"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
+    <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="19"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="12"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -5219,10 +5248,10 @@
       <c r="V150" s="2"/>
       <c r="W150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
+    <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="19"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -5244,10 +5273,10 @@
       <c r="V151" s="2"/>
       <c r="W151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
+    <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="19"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="12"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -5269,10 +5298,10 @@
       <c r="V152" s="2"/>
       <c r="W152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
+    <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="19"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -5294,10 +5323,10 @@
       <c r="V153" s="2"/>
       <c r="W153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
+    <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="19"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -5319,10 +5348,10 @@
       <c r="V154" s="2"/>
       <c r="W154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
+    <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="19"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="12"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -5344,10 +5373,10 @@
       <c r="V155" s="2"/>
       <c r="W155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
+    <row r="156" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="19"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="12"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -5369,10 +5398,10 @@
       <c r="V156" s="2"/>
       <c r="W156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
+    <row r="157" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="19"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -5394,10 +5423,10 @@
       <c r="V157" s="2"/>
       <c r="W157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
+    <row r="158" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="19"/>
+      <c r="B158" s="12"/>
+      <c r="C158" s="12"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -5419,10 +5448,10 @@
       <c r="V158" s="2"/>
       <c r="W158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
+    <row r="159" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="19"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -5444,10 +5473,10 @@
       <c r="V159" s="2"/>
       <c r="W159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="17"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
+    <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="19"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="12"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -5469,10 +5498,10 @@
       <c r="V160" s="2"/>
       <c r="W160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
+    <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="19"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -5494,10 +5523,10 @@
       <c r="V161" s="2"/>
       <c r="W161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
+    <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="19"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -5519,10 +5548,10 @@
       <c r="V162" s="2"/>
       <c r="W162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="17"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
+    <row r="163" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="19"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -5544,10 +5573,10 @@
       <c r="V163" s="2"/>
       <c r="W163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="17"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
+    <row r="164" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="19"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="12"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -5569,10 +5598,10 @@
       <c r="V164" s="2"/>
       <c r="W164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
+    <row r="165" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="19"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -5594,10 +5623,10 @@
       <c r="V165" s="2"/>
       <c r="W165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
+    <row r="166" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="19"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="12"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -5619,10 +5648,10 @@
       <c r="V166" s="2"/>
       <c r="W166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="17"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
+    <row r="167" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="19"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -5644,10 +5673,10 @@
       <c r="V167" s="2"/>
       <c r="W167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
+    <row r="168" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="19"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -5669,10 +5698,10 @@
       <c r="V168" s="2"/>
       <c r="W168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
+    <row r="169" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="19"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -5694,10 +5723,10 @@
       <c r="V169" s="2"/>
       <c r="W169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="17"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
+    <row r="170" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="19"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="12"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -5719,10 +5748,10 @@
       <c r="V170" s="2"/>
       <c r="W170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
+    <row r="171" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="19"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -5744,10 +5773,10 @@
       <c r="V171" s="2"/>
       <c r="W171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="17"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
+    <row r="172" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="19"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="12"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -5769,10 +5798,10 @@
       <c r="V172" s="2"/>
       <c r="W172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="17"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
+    <row r="173" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="19"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -5794,10 +5823,10 @@
       <c r="V173" s="2"/>
       <c r="W173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="17"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="17"/>
+    <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="19"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="12"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -5819,10 +5848,10 @@
       <c r="V174" s="2"/>
       <c r="W174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
+    <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="19"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="12"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -5844,10 +5873,10 @@
       <c r="V175" s="2"/>
       <c r="W175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
+    <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="19"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="12"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -5869,10 +5898,10 @@
       <c r="V176" s="2"/>
       <c r="W176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="17"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="17"/>
+    <row r="177" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="19"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -5894,10 +5923,10 @@
       <c r="V177" s="2"/>
       <c r="W177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="17"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
+    <row r="178" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="19"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="12"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -5919,10 +5948,10 @@
       <c r="V178" s="2"/>
       <c r="W178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="17"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
+    <row r="179" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="19"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -5944,10 +5973,10 @@
       <c r="V179" s="2"/>
       <c r="W179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="17"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
+    <row r="180" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="19"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -5969,10 +5998,10 @@
       <c r="V180" s="2"/>
       <c r="W180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="17"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
+    <row r="181" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="19"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -5994,10 +6023,10 @@
       <c r="V181" s="2"/>
       <c r="W181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="17"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
+    <row r="182" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="19"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="12"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -6019,10 +6048,10 @@
       <c r="V182" s="2"/>
       <c r="W182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="17"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="17"/>
+    <row r="183" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="19"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -6044,10 +6073,10 @@
       <c r="V183" s="2"/>
       <c r="W183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="17"/>
-      <c r="B184" s="17"/>
-      <c r="C184" s="17"/>
+    <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="19"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -6069,10 +6098,10 @@
       <c r="V184" s="2"/>
       <c r="W184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="17"/>
-      <c r="B185" s="17"/>
-      <c r="C185" s="17"/>
+    <row r="185" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="19"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -6094,10 +6123,10 @@
       <c r="V185" s="2"/>
       <c r="W185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="17"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
+    <row r="186" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="19"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -6119,10 +6148,10 @@
       <c r="V186" s="2"/>
       <c r="W186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="17"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
+    <row r="187" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="19"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -6144,10 +6173,10 @@
       <c r="V187" s="2"/>
       <c r="W187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="17"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="17"/>
+    <row r="188" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="19"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -6169,10 +6198,10 @@
       <c r="V188" s="2"/>
       <c r="W188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="17"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
+    <row r="189" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="19"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -6194,10 +6223,10 @@
       <c r="V189" s="2"/>
       <c r="W189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="17"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
+    <row r="190" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="19"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -6219,10 +6248,10 @@
       <c r="V190" s="2"/>
       <c r="W190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="17"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
+    <row r="191" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="19"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -6244,10 +6273,10 @@
       <c r="V191" s="2"/>
       <c r="W191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="17"/>
-      <c r="B192" s="17"/>
-      <c r="C192" s="17"/>
+    <row r="192" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="19"/>
+      <c r="B192" s="12"/>
+      <c r="C192" s="12"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -6269,10 +6298,10 @@
       <c r="V192" s="2"/>
       <c r="W192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="17"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
+    <row r="193" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="19"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -6294,10 +6323,10 @@
       <c r="V193" s="2"/>
       <c r="W193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="17"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
+    <row r="194" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="19"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="12"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -6319,10 +6348,10 @@
       <c r="V194" s="2"/>
       <c r="W194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="17"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
+    <row r="195" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="19"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -6344,10 +6373,10 @@
       <c r="V195" s="2"/>
       <c r="W195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="17"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
+    <row r="196" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="19"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -6369,10 +6398,10 @@
       <c r="V196" s="2"/>
       <c r="W196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="17"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
+    <row r="197" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="19"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -6394,10 +6423,10 @@
       <c r="V197" s="2"/>
       <c r="W197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="17"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
+    <row r="198" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="19"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="12"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -6419,10 +6448,10 @@
       <c r="V198" s="2"/>
       <c r="W198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="17"/>
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
+    <row r="199" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="19"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="12"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -6444,10 +6473,10 @@
       <c r="V199" s="2"/>
       <c r="W199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="17"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
+    <row r="200" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="19"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="12"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -6469,10 +6498,10 @@
       <c r="V200" s="2"/>
       <c r="W200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="17"/>
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
+    <row r="201" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="19"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="12"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -6494,10 +6523,10 @@
       <c r="V201" s="2"/>
       <c r="W201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="17"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
+    <row r="202" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="19"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="12"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
@@ -6519,10 +6548,10 @@
       <c r="V202" s="2"/>
       <c r="W202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="17"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
+    <row r="203" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="19"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="12"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -6544,10 +6573,10 @@
       <c r="V203" s="2"/>
       <c r="W203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="17"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
+    <row r="204" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="19"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="12"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -6569,10 +6598,10 @@
       <c r="V204" s="2"/>
       <c r="W204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="17"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="17"/>
+    <row r="205" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="19"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="12"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
@@ -6594,10 +6623,10 @@
       <c r="V205" s="2"/>
       <c r="W205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="17"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
+    <row r="206" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="19"/>
+      <c r="B206" s="12"/>
+      <c r="C206" s="12"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -6619,10 +6648,10 @@
       <c r="V206" s="2"/>
       <c r="W206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="17"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="17"/>
+    <row r="207" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="19"/>
+      <c r="B207" s="12"/>
+      <c r="C207" s="12"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -6644,10 +6673,10 @@
       <c r="V207" s="2"/>
       <c r="W207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="17"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
+    <row r="208" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="19"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
@@ -6669,10 +6698,10 @@
       <c r="V208" s="2"/>
       <c r="W208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="17"/>
-      <c r="B209" s="17"/>
-      <c r="C209" s="17"/>
+    <row r="209" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="19"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="12"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
@@ -6694,10 +6723,10 @@
       <c r="V209" s="2"/>
       <c r="W209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="17"/>
-      <c r="B210" s="17"/>
-      <c r="C210" s="17"/>
+    <row r="210" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="19"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="12"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -6719,10 +6748,10 @@
       <c r="V210" s="2"/>
       <c r="W210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="17"/>
-      <c r="B211" s="17"/>
-      <c r="C211" s="17"/>
+    <row r="211" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="19"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="12"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -6744,10 +6773,10 @@
       <c r="V211" s="2"/>
       <c r="W211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="17"/>
-      <c r="B212" s="17"/>
-      <c r="C212" s="17"/>
+    <row r="212" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="19"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="12"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -6769,10 +6798,10 @@
       <c r="V212" s="2"/>
       <c r="W212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="17"/>
-      <c r="B213" s="17"/>
-      <c r="C213" s="17"/>
+    <row r="213" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="19"/>
+      <c r="B213" s="12"/>
+      <c r="C213" s="12"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
@@ -6794,10 +6823,10 @@
       <c r="V213" s="2"/>
       <c r="W213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="17"/>
-      <c r="B214" s="17"/>
-      <c r="C214" s="17"/>
+    <row r="214" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="19"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="12"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
@@ -6819,10 +6848,10 @@
       <c r="V214" s="2"/>
       <c r="W214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="17"/>
-      <c r="B215" s="17"/>
-      <c r="C215" s="17"/>
+    <row r="215" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="19"/>
+      <c r="B215" s="12"/>
+      <c r="C215" s="12"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
@@ -6844,10 +6873,10 @@
       <c r="V215" s="2"/>
       <c r="W215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="17"/>
-      <c r="B216" s="17"/>
-      <c r="C216" s="17"/>
+    <row r="216" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="19"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="12"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -6869,10 +6898,10 @@
       <c r="V216" s="2"/>
       <c r="W216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="17"/>
-      <c r="B217" s="17"/>
-      <c r="C217" s="17"/>
+    <row r="217" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="19"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="12"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -6894,10 +6923,10 @@
       <c r="V217" s="2"/>
       <c r="W217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="17"/>
-      <c r="B218" s="17"/>
-      <c r="C218" s="17"/>
+    <row r="218" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="19"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="12"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -6919,10 +6948,10 @@
       <c r="V218" s="2"/>
       <c r="W218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="17"/>
-      <c r="B219" s="17"/>
-      <c r="C219" s="17"/>
+    <row r="219" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="19"/>
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -6944,10 +6973,10 @@
       <c r="V219" s="2"/>
       <c r="W219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="17"/>
-      <c r="B220" s="17"/>
-      <c r="C220" s="17"/>
+    <row r="220" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="19"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="12"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
@@ -6969,10 +6998,10 @@
       <c r="V220" s="2"/>
       <c r="W220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="17"/>
-      <c r="B221" s="17"/>
-      <c r="C221" s="17"/>
+    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="19"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -6994,10 +7023,10 @@
       <c r="V221" s="2"/>
       <c r="W221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="17"/>
-      <c r="B222" s="17"/>
-      <c r="C222" s="17"/>
+    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="19"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="12"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
@@ -7019,10 +7048,10 @@
       <c r="V222" s="2"/>
       <c r="W222" s="2"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="17"/>
-      <c r="B223" s="17"/>
-      <c r="C223" s="17"/>
+    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="19"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="12"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -7044,10 +7073,10 @@
       <c r="V223" s="2"/>
       <c r="W223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="17"/>
-      <c r="B224" s="17"/>
-      <c r="C224" s="17"/>
+    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="19"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="12"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
@@ -7069,10 +7098,10 @@
       <c r="V224" s="2"/>
       <c r="W224" s="2"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="17"/>
-      <c r="B225" s="17"/>
-      <c r="C225" s="17"/>
+    <row r="225" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="19"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="12"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
@@ -7094,10 +7123,10 @@
       <c r="V225" s="2"/>
       <c r="W225" s="2"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="17"/>
-      <c r="B226" s="17"/>
-      <c r="C226" s="17"/>
+    <row r="226" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="19"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="12"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -7119,10 +7148,10 @@
       <c r="V226" s="2"/>
       <c r="W226" s="2"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="17"/>
-      <c r="B227" s="17"/>
-      <c r="C227" s="17"/>
+    <row r="227" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="19"/>
+      <c r="B227" s="12"/>
+      <c r="C227" s="12"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -7144,10 +7173,10 @@
       <c r="V227" s="2"/>
       <c r="W227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="17"/>
-      <c r="B228" s="17"/>
-      <c r="C228" s="17"/>
+    <row r="228" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="19"/>
+      <c r="B228" s="12"/>
+      <c r="C228" s="12"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -7169,10 +7198,10 @@
       <c r="V228" s="2"/>
       <c r="W228" s="2"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="17"/>
-      <c r="B229" s="17"/>
-      <c r="C229" s="17"/>
+    <row r="229" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="19"/>
+      <c r="B229" s="12"/>
+      <c r="C229" s="12"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -7194,10 +7223,10 @@
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="17"/>
-      <c r="B230" s="17"/>
-      <c r="C230" s="17"/>
+    <row r="230" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="19"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="12"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -7219,10 +7248,10 @@
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="17"/>
-      <c r="B231" s="17"/>
-      <c r="C231" s="17"/>
+    <row r="231" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="19"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="12"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -7244,10 +7273,10 @@
       <c r="V231" s="2"/>
       <c r="W231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="17"/>
-      <c r="B232" s="17"/>
-      <c r="C232" s="17"/>
+    <row r="232" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="19"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -7269,10 +7298,10 @@
       <c r="V232" s="2"/>
       <c r="W232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="17"/>
-      <c r="B233" s="17"/>
-      <c r="C233" s="17"/>
+    <row r="233" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="19"/>
+      <c r="B233" s="12"/>
+      <c r="C233" s="12"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -7294,10 +7323,10 @@
       <c r="V233" s="2"/>
       <c r="W233" s="2"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="17"/>
-      <c r="B234" s="17"/>
-      <c r="C234" s="17"/>
+    <row r="234" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="19"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="12"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -7319,10 +7348,10 @@
       <c r="V234" s="2"/>
       <c r="W234" s="2"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="17"/>
-      <c r="B235" s="17"/>
-      <c r="C235" s="17"/>
+    <row r="235" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="19"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="12"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -7344,10 +7373,10 @@
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="17"/>
-      <c r="B236" s="17"/>
-      <c r="C236" s="17"/>
+    <row r="236" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="19"/>
+      <c r="B236" s="12"/>
+      <c r="C236" s="12"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -7369,10 +7398,10 @@
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="17"/>
-      <c r="B237" s="17"/>
-      <c r="C237" s="17"/>
+    <row r="237" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="19"/>
+      <c r="B237" s="12"/>
+      <c r="C237" s="12"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -7394,10 +7423,10 @@
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="17"/>
-      <c r="B238" s="17"/>
-      <c r="C238" s="17"/>
+    <row r="238" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="19"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="12"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -7419,10 +7448,10 @@
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="17"/>
-      <c r="B239" s="17"/>
-      <c r="C239" s="17"/>
+    <row r="239" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="19"/>
+      <c r="B239" s="12"/>
+      <c r="C239" s="12"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -7444,10 +7473,10 @@
       <c r="V239" s="2"/>
       <c r="W239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="17"/>
-      <c r="B240" s="17"/>
-      <c r="C240" s="17"/>
+    <row r="240" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="19"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="12"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -7469,10 +7498,10 @@
       <c r="V240" s="2"/>
       <c r="W240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="17"/>
-      <c r="B241" s="17"/>
-      <c r="C241" s="17"/>
+    <row r="241" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="19"/>
+      <c r="B241" s="12"/>
+      <c r="C241" s="12"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -7494,10 +7523,10 @@
       <c r="V241" s="2"/>
       <c r="W241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="17"/>
-      <c r="B242" s="17"/>
-      <c r="C242" s="17"/>
+    <row r="242" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="19"/>
+      <c r="B242" s="12"/>
+      <c r="C242" s="12"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -7519,10 +7548,10 @@
       <c r="V242" s="2"/>
       <c r="W242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="17"/>
-      <c r="B243" s="17"/>
-      <c r="C243" s="17"/>
+    <row r="243" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="19"/>
+      <c r="B243" s="12"/>
+      <c r="C243" s="12"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -7544,10 +7573,10 @@
       <c r="V243" s="2"/>
       <c r="W243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="17"/>
-      <c r="B244" s="17"/>
-      <c r="C244" s="17"/>
+    <row r="244" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="19"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="12"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
@@ -7569,10 +7598,10 @@
       <c r="V244" s="2"/>
       <c r="W244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="17"/>
-      <c r="B245" s="17"/>
-      <c r="C245" s="17"/>
+    <row r="245" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="19"/>
+      <c r="B245" s="12"/>
+      <c r="C245" s="12"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
@@ -7594,10 +7623,10 @@
       <c r="V245" s="2"/>
       <c r="W245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="17"/>
-      <c r="B246" s="17"/>
-      <c r="C246" s="17"/>
+    <row r="246" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="19"/>
+      <c r="B246" s="12"/>
+      <c r="C246" s="12"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -7619,10 +7648,10 @@
       <c r="V246" s="2"/>
       <c r="W246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="17"/>
-      <c r="B247" s="17"/>
-      <c r="C247" s="17"/>
+    <row r="247" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="19"/>
+      <c r="B247" s="12"/>
+      <c r="C247" s="12"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -7644,10 +7673,10 @@
       <c r="V247" s="2"/>
       <c r="W247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="17"/>
-      <c r="B248" s="17"/>
-      <c r="C248" s="17"/>
+    <row r="248" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="19"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="12"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
@@ -7669,10 +7698,10 @@
       <c r="V248" s="2"/>
       <c r="W248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="17"/>
-      <c r="B249" s="17"/>
-      <c r="C249" s="17"/>
+    <row r="249" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="19"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="12"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -7694,10 +7723,10 @@
       <c r="V249" s="2"/>
       <c r="W249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="17"/>
-      <c r="B250" s="17"/>
-      <c r="C250" s="17"/>
+    <row r="250" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="19"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="12"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -7719,10 +7748,10 @@
       <c r="V250" s="2"/>
       <c r="W250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="17"/>
-      <c r="B251" s="17"/>
-      <c r="C251" s="17"/>
+    <row r="251" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="19"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="12"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
@@ -7744,10 +7773,10 @@
       <c r="V251" s="2"/>
       <c r="W251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="17"/>
-      <c r="B252" s="17"/>
-      <c r="C252" s="17"/>
+    <row r="252" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="19"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="12"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
@@ -7769,10 +7798,10 @@
       <c r="V252" s="2"/>
       <c r="W252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="17"/>
-      <c r="B253" s="17"/>
-      <c r="C253" s="17"/>
+    <row r="253" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="19"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="12"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -7794,10 +7823,10 @@
       <c r="V253" s="2"/>
       <c r="W253" s="2"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="17"/>
-      <c r="B254" s="17"/>
-      <c r="C254" s="17"/>
+    <row r="254" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="19"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="12"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -7819,10 +7848,10 @@
       <c r="V254" s="2"/>
       <c r="W254" s="2"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="17"/>
-      <c r="B255" s="17"/>
-      <c r="C255" s="17"/>
+    <row r="255" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="19"/>
+      <c r="B255" s="12"/>
+      <c r="C255" s="12"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
@@ -7844,10 +7873,10 @@
       <c r="V255" s="2"/>
       <c r="W255" s="2"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="17"/>
-      <c r="B256" s="17"/>
-      <c r="C256" s="17"/>
+    <row r="256" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="19"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="12"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -7869,10 +7898,10 @@
       <c r="V256" s="2"/>
       <c r="W256" s="2"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="17"/>
-      <c r="B257" s="17"/>
-      <c r="C257" s="17"/>
+    <row r="257" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="19"/>
+      <c r="B257" s="12"/>
+      <c r="C257" s="12"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -7894,10 +7923,10 @@
       <c r="V257" s="2"/>
       <c r="W257" s="2"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="17"/>
-      <c r="B258" s="17"/>
-      <c r="C258" s="17"/>
+    <row r="258" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="19"/>
+      <c r="B258" s="12"/>
+      <c r="C258" s="12"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -7919,10 +7948,10 @@
       <c r="V258" s="2"/>
       <c r="W258" s="2"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="17"/>
-      <c r="B259" s="17"/>
-      <c r="C259" s="17"/>
+    <row r="259" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="19"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="12"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
@@ -7944,10 +7973,10 @@
       <c r="V259" s="2"/>
       <c r="W259" s="2"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="17"/>
-      <c r="B260" s="17"/>
-      <c r="C260" s="17"/>
+    <row r="260" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="19"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="12"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -7969,10 +7998,10 @@
       <c r="V260" s="2"/>
       <c r="W260" s="2"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="17"/>
-      <c r="B261" s="17"/>
-      <c r="C261" s="17"/>
+    <row r="261" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="19"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -7994,10 +8023,10 @@
       <c r="V261" s="2"/>
       <c r="W261" s="2"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="17"/>
-      <c r="B262" s="17"/>
-      <c r="C262" s="17"/>
+    <row r="262" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="19"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="12"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
@@ -8019,10 +8048,10 @@
       <c r="V262" s="2"/>
       <c r="W262" s="2"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="17"/>
-      <c r="B263" s="17"/>
-      <c r="C263" s="17"/>
+    <row r="263" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="19"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="12"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
@@ -8044,10 +8073,10 @@
       <c r="V263" s="2"/>
       <c r="W263" s="2"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="17"/>
-      <c r="B264" s="17"/>
-      <c r="C264" s="17"/>
+    <row r="264" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="19"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="12"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
@@ -8069,10 +8098,10 @@
       <c r="V264" s="2"/>
       <c r="W264" s="2"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="17"/>
-      <c r="B265" s="17"/>
-      <c r="C265" s="17"/>
+    <row r="265" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="19"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="12"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -8094,10 +8123,10 @@
       <c r="V265" s="2"/>
       <c r="W265" s="2"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="17"/>
-      <c r="B266" s="17"/>
-      <c r="C266" s="17"/>
+    <row r="266" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="19"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="12"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
@@ -8119,10 +8148,10 @@
       <c r="V266" s="2"/>
       <c r="W266" s="2"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="17"/>
-      <c r="B267" s="17"/>
-      <c r="C267" s="17"/>
+    <row r="267" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="19"/>
+      <c r="B267" s="12"/>
+      <c r="C267" s="12"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
@@ -8144,10 +8173,10 @@
       <c r="V267" s="2"/>
       <c r="W267" s="2"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="17"/>
-      <c r="B268" s="17"/>
-      <c r="C268" s="17"/>
+    <row r="268" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="19"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="12"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
@@ -8169,10 +8198,10 @@
       <c r="V268" s="2"/>
       <c r="W268" s="2"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="17"/>
-      <c r="B269" s="17"/>
-      <c r="C269" s="17"/>
+    <row r="269" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="19"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="12"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
@@ -8194,10 +8223,10 @@
       <c r="V269" s="2"/>
       <c r="W269" s="2"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="17"/>
-      <c r="B270" s="17"/>
-      <c r="C270" s="17"/>
+    <row r="270" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="19"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="12"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
@@ -8219,10 +8248,10 @@
       <c r="V270" s="2"/>
       <c r="W270" s="2"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="17"/>
-      <c r="B271" s="17"/>
-      <c r="C271" s="17"/>
+    <row r="271" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="19"/>
+      <c r="B271" s="12"/>
+      <c r="C271" s="12"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
@@ -8244,10 +8273,10 @@
       <c r="V271" s="2"/>
       <c r="W271" s="2"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="17"/>
-      <c r="B272" s="17"/>
-      <c r="C272" s="17"/>
+    <row r="272" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="19"/>
+      <c r="B272" s="12"/>
+      <c r="C272" s="12"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
@@ -8269,10 +8298,10 @@
       <c r="V272" s="2"/>
       <c r="W272" s="2"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="17"/>
-      <c r="B273" s="17"/>
-      <c r="C273" s="17"/>
+    <row r="273" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="19"/>
+      <c r="B273" s="12"/>
+      <c r="C273" s="12"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
@@ -8294,10 +8323,10 @@
       <c r="V273" s="2"/>
       <c r="W273" s="2"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="17"/>
-      <c r="B274" s="17"/>
-      <c r="C274" s="17"/>
+    <row r="274" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="19"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="12"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -8319,10 +8348,10 @@
       <c r="V274" s="2"/>
       <c r="W274" s="2"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="17"/>
-      <c r="B275" s="17"/>
-      <c r="C275" s="17"/>
+    <row r="275" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="19"/>
+      <c r="B275" s="12"/>
+      <c r="C275" s="12"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
@@ -8344,10 +8373,10 @@
       <c r="V275" s="2"/>
       <c r="W275" s="2"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="17"/>
-      <c r="B276" s="17"/>
-      <c r="C276" s="17"/>
+    <row r="276" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="19"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="12"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -8369,10 +8398,10 @@
       <c r="V276" s="2"/>
       <c r="W276" s="2"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="17"/>
-      <c r="B277" s="17"/>
-      <c r="C277" s="17"/>
+    <row r="277" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="19"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="12"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
@@ -8394,10 +8423,10 @@
       <c r="V277" s="2"/>
       <c r="W277" s="2"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="17"/>
-      <c r="B278" s="17"/>
-      <c r="C278" s="17"/>
+    <row r="278" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="19"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="12"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
@@ -8419,10 +8448,10 @@
       <c r="V278" s="2"/>
       <c r="W278" s="2"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="17"/>
-      <c r="B279" s="17"/>
-      <c r="C279" s="17"/>
+    <row r="279" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="19"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="12"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
@@ -8444,10 +8473,10 @@
       <c r="V279" s="2"/>
       <c r="W279" s="2"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="17"/>
-      <c r="B280" s="17"/>
-      <c r="C280" s="17"/>
+    <row r="280" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="19"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="12"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -8469,10 +8498,10 @@
       <c r="V280" s="2"/>
       <c r="W280" s="2"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="17"/>
-      <c r="B281" s="17"/>
-      <c r="C281" s="17"/>
+    <row r="281" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="19"/>
+      <c r="B281" s="12"/>
+      <c r="C281" s="12"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -8494,10 +8523,10 @@
       <c r="V281" s="2"/>
       <c r="W281" s="2"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="17"/>
-      <c r="B282" s="17"/>
-      <c r="C282" s="17"/>
+    <row r="282" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="19"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="12"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
@@ -8519,10 +8548,10 @@
       <c r="V282" s="2"/>
       <c r="W282" s="2"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="17"/>
-      <c r="B283" s="17"/>
-      <c r="C283" s="17"/>
+    <row r="283" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="19"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="12"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
@@ -8544,10 +8573,10 @@
       <c r="V283" s="2"/>
       <c r="W283" s="2"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="17"/>
-      <c r="B284" s="17"/>
-      <c r="C284" s="17"/>
+    <row r="284" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="19"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="12"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
@@ -8569,10 +8598,10 @@
       <c r="V284" s="2"/>
       <c r="W284" s="2"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="17"/>
-      <c r="B285" s="17"/>
-      <c r="C285" s="17"/>
+    <row r="285" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="19"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="12"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -8594,10 +8623,10 @@
       <c r="V285" s="2"/>
       <c r="W285" s="2"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="17"/>
-      <c r="B286" s="17"/>
-      <c r="C286" s="17"/>
+    <row r="286" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="19"/>
+      <c r="B286" s="12"/>
+      <c r="C286" s="12"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -8619,10 +8648,10 @@
       <c r="V286" s="2"/>
       <c r="W286" s="2"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="17"/>
-      <c r="B287" s="17"/>
-      <c r="C287" s="17"/>
+    <row r="287" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="19"/>
+      <c r="B287" s="12"/>
+      <c r="C287" s="12"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
@@ -8644,10 +8673,10 @@
       <c r="V287" s="2"/>
       <c r="W287" s="2"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="17"/>
-      <c r="B288" s="17"/>
-      <c r="C288" s="17"/>
+    <row r="288" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="19"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="12"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
@@ -8669,10 +8698,10 @@
       <c r="V288" s="2"/>
       <c r="W288" s="2"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="17"/>
-      <c r="B289" s="17"/>
-      <c r="C289" s="17"/>
+    <row r="289" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="19"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="12"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
@@ -8694,10 +8723,10 @@
       <c r="V289" s="2"/>
       <c r="W289" s="2"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="17"/>
-      <c r="B290" s="17"/>
-      <c r="C290" s="17"/>
+    <row r="290" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="19"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="12"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
@@ -8719,10 +8748,10 @@
       <c r="V290" s="2"/>
       <c r="W290" s="2"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="17"/>
-      <c r="B291" s="17"/>
-      <c r="C291" s="17"/>
+    <row r="291" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="19"/>
+      <c r="B291" s="12"/>
+      <c r="C291" s="12"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
@@ -8744,10 +8773,10 @@
       <c r="V291" s="2"/>
       <c r="W291" s="2"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="17"/>
-      <c r="B292" s="17"/>
-      <c r="C292" s="17"/>
+    <row r="292" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="19"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="12"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
@@ -8769,10 +8798,10 @@
       <c r="V292" s="2"/>
       <c r="W292" s="2"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="17"/>
-      <c r="B293" s="17"/>
-      <c r="C293" s="17"/>
+    <row r="293" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="19"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
@@ -8794,10 +8823,10 @@
       <c r="V293" s="2"/>
       <c r="W293" s="2"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="17"/>
-      <c r="B294" s="17"/>
-      <c r="C294" s="17"/>
+    <row r="294" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="19"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="12"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
@@ -8819,10 +8848,10 @@
       <c r="V294" s="2"/>
       <c r="W294" s="2"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="17"/>
-      <c r="B295" s="17"/>
-      <c r="C295" s="17"/>
+    <row r="295" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="19"/>
+      <c r="B295" s="12"/>
+      <c r="C295" s="12"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
@@ -8844,10 +8873,10 @@
       <c r="V295" s="2"/>
       <c r="W295" s="2"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="17"/>
-      <c r="B296" s="17"/>
-      <c r="C296" s="17"/>
+    <row r="296" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="19"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="12"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
@@ -8869,10 +8898,10 @@
       <c r="V296" s="2"/>
       <c r="W296" s="2"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="17"/>
-      <c r="B297" s="17"/>
-      <c r="C297" s="17"/>
+    <row r="297" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="19"/>
+      <c r="B297" s="12"/>
+      <c r="C297" s="12"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
@@ -8894,10 +8923,10 @@
       <c r="V297" s="2"/>
       <c r="W297" s="2"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="17"/>
-      <c r="B298" s="17"/>
-      <c r="C298" s="17"/>
+    <row r="298" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="19"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="12"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
@@ -8919,10 +8948,10 @@
       <c r="V298" s="2"/>
       <c r="W298" s="2"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="17"/>
-      <c r="B299" s="17"/>
-      <c r="C299" s="17"/>
+    <row r="299" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="19"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="12"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
@@ -8944,10 +8973,10 @@
       <c r="V299" s="2"/>
       <c r="W299" s="2"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="17"/>
-      <c r="B300" s="17"/>
-      <c r="C300" s="17"/>
+    <row r="300" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="19"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="12"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
@@ -8969,10 +8998,10 @@
       <c r="V300" s="2"/>
       <c r="W300" s="2"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="17"/>
-      <c r="B301" s="17"/>
-      <c r="C301" s="17"/>
+    <row r="301" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="19"/>
+      <c r="B301" s="12"/>
+      <c r="C301" s="12"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
@@ -8994,10 +9023,10 @@
       <c r="V301" s="2"/>
       <c r="W301" s="2"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="17"/>
-      <c r="B302" s="17"/>
-      <c r="C302" s="17"/>
+    <row r="302" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="19"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="12"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
@@ -9019,10 +9048,10 @@
       <c r="V302" s="2"/>
       <c r="W302" s="2"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="17"/>
-      <c r="B303" s="17"/>
-      <c r="C303" s="17"/>
+    <row r="303" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="19"/>
+      <c r="B303" s="12"/>
+      <c r="C303" s="12"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
@@ -9044,10 +9073,10 @@
       <c r="V303" s="2"/>
       <c r="W303" s="2"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="17"/>
-      <c r="B304" s="17"/>
-      <c r="C304" s="17"/>
+    <row r="304" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="19"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="12"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
@@ -9069,10 +9098,10 @@
       <c r="V304" s="2"/>
       <c r="W304" s="2"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="17"/>
-      <c r="B305" s="17"/>
-      <c r="C305" s="17"/>
+    <row r="305" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="19"/>
+      <c r="B305" s="12"/>
+      <c r="C305" s="12"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
@@ -9094,10 +9123,10 @@
       <c r="V305" s="2"/>
       <c r="W305" s="2"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="17"/>
-      <c r="B306" s="17"/>
-      <c r="C306" s="17"/>
+    <row r="306" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="19"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="12"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
@@ -9119,10 +9148,10 @@
       <c r="V306" s="2"/>
       <c r="W306" s="2"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="17"/>
-      <c r="B307" s="17"/>
-      <c r="C307" s="17"/>
+    <row r="307" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="19"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="12"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
@@ -9144,10 +9173,10 @@
       <c r="V307" s="2"/>
       <c r="W307" s="2"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="17"/>
-      <c r="B308" s="17"/>
-      <c r="C308" s="17"/>
+    <row r="308" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="19"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="12"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
@@ -9169,10 +9198,10 @@
       <c r="V308" s="2"/>
       <c r="W308" s="2"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="17"/>
-      <c r="B309" s="17"/>
-      <c r="C309" s="17"/>
+    <row r="309" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="19"/>
+      <c r="B309" s="12"/>
+      <c r="C309" s="12"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
@@ -9194,10 +9223,10 @@
       <c r="V309" s="2"/>
       <c r="W309" s="2"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="17"/>
-      <c r="B310" s="17"/>
-      <c r="C310" s="17"/>
+    <row r="310" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A310" s="19"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
@@ -9219,10 +9248,10 @@
       <c r="V310" s="2"/>
       <c r="W310" s="2"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="17"/>
-      <c r="B311" s="17"/>
-      <c r="C311" s="17"/>
+    <row r="311" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A311" s="19"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
@@ -9244,10 +9273,10 @@
       <c r="V311" s="2"/>
       <c r="W311" s="2"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="17"/>
-      <c r="B312" s="17"/>
-      <c r="C312" s="17"/>
+    <row r="312" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A312" s="19"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="12"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
@@ -9269,10 +9298,10 @@
       <c r="V312" s="2"/>
       <c r="W312" s="2"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="17"/>
-      <c r="B313" s="17"/>
-      <c r="C313" s="17"/>
+    <row r="313" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A313" s="19"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="12"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
@@ -9294,10 +9323,10 @@
       <c r="V313" s="2"/>
       <c r="W313" s="2"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="17"/>
-      <c r="B314" s="17"/>
-      <c r="C314" s="17"/>
+    <row r="314" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A314" s="19"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="12"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
@@ -9319,10 +9348,10 @@
       <c r="V314" s="2"/>
       <c r="W314" s="2"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="17"/>
-      <c r="B315" s="17"/>
-      <c r="C315" s="17"/>
+    <row r="315" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A315" s="19"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="12"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
@@ -9344,10 +9373,10 @@
       <c r="V315" s="2"/>
       <c r="W315" s="2"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="17"/>
-      <c r="B316" s="17"/>
-      <c r="C316" s="17"/>
+    <row r="316" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A316" s="19"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="12"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
@@ -9369,699 +9398,699 @@
       <c r="V316" s="2"/>
       <c r="W316" s="2"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="317" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="A107:A116"/>
+    <mergeCell ref="A28:A47"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A27"/>
     <mergeCell ref="A48:A59"/>
     <mergeCell ref="A60:A76"/>
     <mergeCell ref="A77:A96"/>
-    <mergeCell ref="A97:A106"/>
-    <mergeCell ref="A107:A116"/>
-    <mergeCell ref="A28:A47"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>